--- a/sgxsensortech/i2c_addresss.xlsx
+++ b/sgxsensortech/i2c_addresss.xlsx
@@ -1,13 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\ros2\ins_fpt-18-10\hardware\sgxsensortech\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B681B30-C8A1-413C-A93E-5FA09693F535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="35670" yWindow="1110" windowWidth="17310" windowHeight="11130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="sgxsensortech" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,9 +24,32 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sensror Type </t>
+  </si>
+  <si>
+    <t>Mfr</t>
+  </si>
+  <si>
+    <t>I2C Address</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,13 +57,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -49,8 +92,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +374,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" customWidth="1"/>
+    <col min="6" max="6" width="34.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/sgxsensortech/i2c_addresss.xlsx
+++ b/sgxsensortech/i2c_addresss.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\ros2\ins_fpt-18-10\hardware\sgxsensortech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B681B30-C8A1-413C-A93E-5FA09693F535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C653BF5F-020E-4963-A65A-DCAEA2A61F91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35670" yWindow="1110" windowWidth="17310" windowHeight="11130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24840" yWindow="-120" windowWidth="28080" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sgxsensortech" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>No</t>
   </si>
@@ -43,13 +43,56 @@
   </si>
   <si>
     <t>Notes</t>
+  </si>
+  <si>
+    <t>mcp4725</t>
+  </si>
+  <si>
+    <t>ads1115</t>
+  </si>
+  <si>
+    <t>0x48</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0x60</t>
+  </si>
+  <si>
+    <t>pcf8591</t>
+  </si>
+  <si>
+    <t>DAC -12 bit</t>
+  </si>
+  <si>
+    <t>mcp23017</t>
+  </si>
+  <si>
+    <t>0x20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> port expander</t>
+  </si>
+  <si>
+    <t>ADC-16 bit ( 0x48, 0x49, 0x4a, 0x4b)</t>
+  </si>
+  <si>
+    <t>Datasheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.nxp.com/docs/en/data-sheet/PCF8591.pdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADC-8 bit ( 0x48, 0x49, 0x4A, 0x4B, 0x4C, 0x4D, 0x4E, 0x4F)
+</t>
+  </si>
+  <si>
+    <t>https://www.sgxsensortech.com/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -61,6 +104,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -89,14 +140,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -375,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -386,11 +443,12 @@
     <col min="2" max="2" width="29.7109375" customWidth="1"/>
     <col min="3" max="3" width="30" customWidth="1"/>
     <col min="4" max="4" width="17.140625" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" customWidth="1"/>
+    <col min="5" max="5" width="37.85546875" customWidth="1"/>
     <col min="6" max="6" width="34.140625" customWidth="1"/>
+    <col min="7" max="7" width="63.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -409,14 +467,79 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G5" r:id="rId1" xr:uid="{B6BBF0ED-C618-45CD-B534-2D26A1E81294}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/sgxsensortech/i2c_addresss.xlsx
+++ b/sgxsensortech/i2c_addresss.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\ros2\ins_fpt-18-10\hardware\sgxsensortech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C653BF5F-020E-4963-A65A-DCAEA2A61F91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B39663A2-AB4F-4CB9-B2A0-59308EC9DD36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24840" yWindow="-120" windowWidth="28080" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>No</t>
   </si>
@@ -86,6 +86,15 @@
   </si>
   <si>
     <t>https://www.sgxsensortech.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.mouser.vn/ProductDetail/Amphenol-SGX-Sensortech/EC4-500-CO?qs=0lSvoLzn4L9J%2FbV1Ld8fdw%3D%3D </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EC4-500-CO </t>
   </si>
 </sst>
 </file>
@@ -432,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -531,15 +540,32 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E6" t="s">
+      <c r="E6" s="2" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G5" r:id="rId1" xr:uid="{B6BBF0ED-C618-45CD-B534-2D26A1E81294}"/>
+    <hyperlink ref="E6" r:id="rId2" xr:uid="{211493C7-A4EE-44DB-83F5-4CBD71675072}"/>
+    <hyperlink ref="E7" r:id="rId3" display="https://www.mouser.vn/ProductDetail/Amphenol-SGX-Sensortech/EC4-500-CO?qs=0lSvoLzn4L9J%2FbV1Ld8fdw%3D%3D" xr:uid="{6A9CBECC-4663-446C-A9E9-6154FBA52993}"/>
+    <hyperlink ref="G7" r:id="rId4" xr:uid="{1A59F3F4-AC8B-404E-BCBA-F445AD13270F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
 </worksheet>
 </file>
--- a/sgxsensortech/i2c_addresss.xlsx
+++ b/sgxsensortech/i2c_addresss.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\ros2\ins_fpt-18-10\hardware\sgxsensortech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B39663A2-AB4F-4CB9-B2A0-59308EC9DD36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD47D1B-C174-4F19-BCDC-B304581F87B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24840" yWindow="-120" windowWidth="28080" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sgxsensortech" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>No</t>
   </si>
@@ -95,6 +96,54 @@
   </si>
   <si>
     <t xml:space="preserve">EC4-500-CO </t>
+  </si>
+  <si>
+    <t>SGX-4NH3-1000</t>
+  </si>
+  <si>
+    <t>SGX-7NO2</t>
+  </si>
+  <si>
+    <t>SGX-7OX</t>
+  </si>
+  <si>
+    <t>SGX-7H2S-100</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Humidity</t>
+  </si>
+  <si>
+    <t>Fine Dusst</t>
+  </si>
+  <si>
+    <t>https://tmonitor.live/en/homepage</t>
+  </si>
+  <si>
+    <t>TVOCS</t>
+  </si>
+  <si>
+    <t>Light</t>
+  </si>
+  <si>
+    <t>AQI</t>
+  </si>
+  <si>
+    <t>NH3</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>O3</t>
+  </si>
+  <si>
+    <t>SO2</t>
+  </si>
+  <si>
+    <t>EC4-20-SO2</t>
   </si>
 </sst>
 </file>
@@ -441,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,6 +607,31 @@
         <v>21</v>
       </c>
     </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G5" r:id="rId1" xr:uid="{B6BBF0ED-C618-45CD-B534-2D26A1E81294}"/>
@@ -568,4 +642,79 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96AF2964-3533-4C89-B457-1B83C13EF2FD}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="45" customWidth="1"/>
+    <col min="2" max="2" width="62" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{0AA0B45B-7F5B-44B5-B39C-17E97A4FA908}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/sgxsensortech/i2c_addresss.xlsx
+++ b/sgxsensortech/i2c_addresss.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\ros2\ins_fpt-18-10\hardware\sgxsensortech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD47D1B-C174-4F19-BCDC-B304581F87B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6142A645-8350-4BC7-8C59-05E4CB35DB30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24840" yWindow="-120" windowWidth="28080" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>No</t>
   </si>
@@ -144,6 +144,9 @@
   </si>
   <si>
     <t>EC4-20-SO2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.mouser.vn/new/amphenol/amphenol-sgx-sensortech-sgx-4x-sensors/ </t>
   </si>
 </sst>
 </file>
@@ -493,7 +496,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -621,6 +624,9 @@
       <c r="C10" t="s">
         <v>24</v>
       </c>
+      <c r="G10" s="2" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
@@ -638,9 +644,10 @@
     <hyperlink ref="E6" r:id="rId2" xr:uid="{211493C7-A4EE-44DB-83F5-4CBD71675072}"/>
     <hyperlink ref="E7" r:id="rId3" display="https://www.mouser.vn/ProductDetail/Amphenol-SGX-Sensortech/EC4-500-CO?qs=0lSvoLzn4L9J%2FbV1Ld8fdw%3D%3D" xr:uid="{6A9CBECC-4663-446C-A9E9-6154FBA52993}"/>
     <hyperlink ref="G7" r:id="rId4" xr:uid="{1A59F3F4-AC8B-404E-BCBA-F445AD13270F}"/>
+    <hyperlink ref="G10" r:id="rId5" xr:uid="{F53DA289-0513-4E23-B1E1-0277B091BC1D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
 </worksheet>
 </file>
 

--- a/sgxsensortech/i2c_addresss.xlsx
+++ b/sgxsensortech/i2c_addresss.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\ros2\ins_fpt-18-10\hardware\sgxsensortech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6142A645-8350-4BC7-8C59-05E4CB35DB30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6446487-28C1-4DEC-AC73-2E0512626299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24840" yWindow="-120" windowWidth="28080" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>No</t>
   </si>
@@ -147,6 +147,24 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.mouser.vn/new/amphenol/amphenol-sgx-sensortech-sgx-4x-sensors/ </t>
+  </si>
+  <si>
+    <t>Carbon Monoxide (CO)</t>
+  </si>
+  <si>
+    <t>Oxygen (O)</t>
+  </si>
+  <si>
+    <t>Ammonia (NH3)</t>
+  </si>
+  <si>
+    <t>Nitrogen Dioxide (NO2)</t>
+  </si>
+  <si>
+    <t>Hydrogen Sulfide (H2S)</t>
+  </si>
+  <si>
+    <t>Sulfur Dioxide Sensor</t>
   </si>
 </sst>
 </file>
@@ -496,7 +514,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -600,6 +618,9 @@
       <c r="A7">
         <v>5</v>
       </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
       <c r="C7" t="s">
         <v>22</v>
       </c>
@@ -611,16 +632,25 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
       <c r="C8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
       <c r="C9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
       <c r="C10" t="s">
         <v>24</v>
       </c>
@@ -629,11 +659,17 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
       <c r="C11" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
       <c r="C12" t="s">
         <v>38</v>
       </c>

--- a/sgxsensortech/i2c_addresss.xlsx
+++ b/sgxsensortech/i2c_addresss.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\ros2\ins_fpt-18-10\hardware\sgxsensortech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6446487-28C1-4DEC-AC73-2E0512626299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B72C7F1C-BFD8-4B90-AE7F-0D3BE3EF8646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24840" yWindow="-120" windowWidth="28080" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>No</t>
   </si>
@@ -165,6 +165,9 @@
   </si>
   <si>
     <t>Sulfur Dioxide Sensor</t>
+  </si>
+  <si>
+    <t>https://www.mouser.vn/new/amphenol/amphenol-sgx-sensortech-ec4-sensors/</t>
   </si>
 </sst>
 </file>
@@ -514,7 +517,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -665,6 +668,9 @@
       <c r="C11" t="s">
         <v>26</v>
       </c>
+      <c r="G11" s="2" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
@@ -681,9 +687,10 @@
     <hyperlink ref="E7" r:id="rId3" display="https://www.mouser.vn/ProductDetail/Amphenol-SGX-Sensortech/EC4-500-CO?qs=0lSvoLzn4L9J%2FbV1Ld8fdw%3D%3D" xr:uid="{6A9CBECC-4663-446C-A9E9-6154FBA52993}"/>
     <hyperlink ref="G7" r:id="rId4" xr:uid="{1A59F3F4-AC8B-404E-BCBA-F445AD13270F}"/>
     <hyperlink ref="G10" r:id="rId5" xr:uid="{F53DA289-0513-4E23-B1E1-0277B091BC1D}"/>
+    <hyperlink ref="G11" r:id="rId6" xr:uid="{0A4612A1-95E5-470E-B627-CEBE170A1FE2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
 </worksheet>
 </file>
 

--- a/sgxsensortech/i2c_addresss.xlsx
+++ b/sgxsensortech/i2c_addresss.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\ros2\ins_fpt-18-10\hardware\sgxsensortech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B72C7F1C-BFD8-4B90-AE7F-0D3BE3EF8646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2924F526-36CE-4D68-88B3-F0553019339A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24840" yWindow="-120" windowWidth="28080" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -517,7 +517,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="B7" sqref="B7:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/sgxsensortech/i2c_addresss.xlsx
+++ b/sgxsensortech/i2c_addresss.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\ros2\ins_fpt-18-10\hardware\sgxsensortech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2924F526-36CE-4D68-88B3-F0553019339A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE204630-E530-45ED-9106-9ADA7165020F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24840" yWindow="-120" windowWidth="28080" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>No</t>
   </si>
@@ -168,6 +168,12 @@
   </si>
   <si>
     <t>https://www.mouser.vn/new/amphenol/amphenol-sgx-sensortech-ec4-sensors/</t>
+  </si>
+  <si>
+    <t>https://www.epa.gov/indoor-air-quality-iaq/nitrogen-dioxides-impact-indoor-air-quality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://migco.vn/danh-muc-nhung-loai-khi-doc-hai-ban-can-biet/ </t>
   </si>
 </sst>
 </file>
@@ -514,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:B12"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -680,6 +686,16 @@
         <v>38</v>
       </c>
     </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G15" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G16" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G5" r:id="rId1" xr:uid="{B6BBF0ED-C618-45CD-B534-2D26A1E81294}"/>
@@ -688,9 +704,11 @@
     <hyperlink ref="G7" r:id="rId4" xr:uid="{1A59F3F4-AC8B-404E-BCBA-F445AD13270F}"/>
     <hyperlink ref="G10" r:id="rId5" xr:uid="{F53DA289-0513-4E23-B1E1-0277B091BC1D}"/>
     <hyperlink ref="G11" r:id="rId6" xr:uid="{0A4612A1-95E5-470E-B627-CEBE170A1FE2}"/>
+    <hyperlink ref="G15" r:id="rId7" xr:uid="{57B21B4E-2A89-4E5D-8826-903812AAD2C6}"/>
+    <hyperlink ref="G16" r:id="rId8" xr:uid="{76A50335-8C91-4863-8F2A-7080097C7672}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId9"/>
 </worksheet>
 </file>
 

--- a/sgxsensortech/i2c_addresss.xlsx
+++ b/sgxsensortech/i2c_addresss.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\ros2\ins_fpt-18-10\hardware\sgxsensortech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE204630-E530-45ED-9106-9ADA7165020F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4422F87-7EE2-4AE8-B789-BF31CF000714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24840" yWindow="-120" windowWidth="28080" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24840" yWindow="-120" windowWidth="28080" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sgxsensortech" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="tmonitor" sheetId="2" r:id="rId2"/>
+    <sheet name="CxHx" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
   <si>
     <t>No</t>
   </si>
@@ -174,6 +175,30 @@
   </si>
   <si>
     <t xml:space="preserve">https://migco.vn/danh-muc-nhung-loai-khi-doc-hai-ban-can-biet/ </t>
+  </si>
+  <si>
+    <t>Butan</t>
+  </si>
+  <si>
+    <t>c4h10</t>
+  </si>
+  <si>
+    <t>Propane</t>
+  </si>
+  <si>
+    <t>C3H8</t>
+  </si>
+  <si>
+    <t>Meta</t>
+  </si>
+  <si>
+    <t>CH4</t>
+  </si>
+  <si>
+    <t>BIOGAS</t>
+  </si>
+  <si>
+    <t>H2</t>
   </si>
 </sst>
 </file>
@@ -522,7 +547,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
@@ -717,7 +742,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -785,4 +810,51 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BC99FAC-6F37-4370-B802-6FE0C4D27B0A}">
+  <dimension ref="A2:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/sgxsensortech/i2c_addresss.xlsx
+++ b/sgxsensortech/i2c_addresss.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\ros2\ins_fpt-18-10\hardware\sgxsensortech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4422F87-7EE2-4AE8-B789-BF31CF000714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF8C85A0-B173-446E-AB4A-7100D1FEA8A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24840" yWindow="-120" windowWidth="28080" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
   <si>
     <t>No</t>
   </si>
@@ -199,6 +199,12 @@
   </si>
   <si>
     <t>H2</t>
+  </si>
+  <si>
+    <t>Multi Gas Detector    (O2 H2S CO LEL)</t>
+  </si>
+  <si>
+    <t>What is LEL in Gas Detection? - Lower Explosive Limits (LEL)</t>
   </si>
 </sst>
 </file>
@@ -257,12 +263,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -814,14 +823,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BC99FAC-6F37-4370-B802-6FE0C4D27B0A}">
-  <dimension ref="A2:C5"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A19" sqref="A19:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="3" max="3" width="49.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+    </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>49</v>
@@ -854,7 +875,18 @@
         <v>56</v>
       </c>
     </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A19:C19"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/sgxsensortech/i2c_addresss.xlsx
+++ b/sgxsensortech/i2c_addresss.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\ros2\ins_fpt-18-10\hardware\sgxsensortech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF8C85A0-B173-446E-AB4A-7100D1FEA8A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D92785-C831-4AF0-B1E0-369812D4D9CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24840" yWindow="-120" windowWidth="28080" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
   <si>
     <t>No</t>
   </si>
@@ -189,9 +189,6 @@
     <t>C3H8</t>
   </si>
   <si>
-    <t>Meta</t>
-  </si>
-  <si>
     <t>CH4</t>
   </si>
   <si>
@@ -205,6 +202,15 @@
   </si>
   <si>
     <t>What is LEL in Gas Detection? - Lower Explosive Limits (LEL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CH2F2</t>
+  </si>
+  <si>
+    <t>Difluoromethane</t>
+  </si>
+  <si>
+    <t>Methan</t>
   </si>
 </sst>
 </file>
@@ -557,7 +563,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -826,7 +832,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:C19"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -838,7 +844,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -861,23 +867,31 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" t="s">
         <v>53</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>54</v>
-      </c>
-      <c r="C4" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
